--- a/assets/xlsx/format_import_produk.xlsx
+++ b/assets/xlsx/format_import_produk.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wijaya_farma\assets\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kode Produk</t>
   </si>
@@ -28,9 +33,6 @@
     <t>Nama Produk</t>
   </si>
   <si>
-    <t>Kode Unit Usaha</t>
-  </si>
-  <si>
     <t>Jenis Produk (1/2)</t>
   </si>
   <si>
@@ -40,12 +42,6 @@
     <t>Kode Akun Pembelian</t>
   </si>
   <si>
-    <t>Harga Non Anggota</t>
-  </si>
-  <si>
-    <t>Harga Anggota</t>
-  </si>
-  <si>
     <t>Kode Akun Penjualan</t>
   </si>
   <si>
@@ -65,12 +61,15 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Harga Jual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -408,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,31 +415,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="18.125" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="4" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -449,25 +446,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -493,22 +484,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
